--- a/Implementation/Python/experiment3blind.xlsx
+++ b/Implementation/Python/experiment3blind.xlsx
@@ -670,49 +670,49 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -741,76 +741,76 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -830,82 +830,82 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -922,85 +922,85 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>349</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>382</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>387</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1017,85 +1017,85 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>445</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>544</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>540</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>454</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="n">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>371</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1109,88 +1109,88 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>539</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>338</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>682</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>668</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>511</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>384</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>570</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1204,88 +1204,88 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>583</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>453</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>369</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>353</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>415</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>723</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>771</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>794</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>751</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>268</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>349</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>572</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>654</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>654</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>702</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>676</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>602</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1299,88 +1299,88 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>387</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>768</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>837</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>841</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>813</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>731</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>591</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>359</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
-        <v>591</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="n">
-        <v>731</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>757</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="n">
-        <v>785</v>
+        <v>2</v>
       </c>
       <c r="AC10" t="n">
-        <v>752</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>390</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1391,91 +1391,91 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>631</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>448</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>340</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>822</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>879</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>877</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>847</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>798</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>622</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>621</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>768</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>830</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>862</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
-        <v>842</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>779</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>702</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1486,91 +1486,91 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>665</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>518</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>838</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>904</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>923</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>905</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>888</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>845</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>766</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>654</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
-        <v>808</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>886</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>895</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="n">
-        <v>876</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>847</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1581,91 +1581,91 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>692</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>356</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>275</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>427</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>879</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>924</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>922</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>907</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>863</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>768</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>611</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>819</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>926</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>932</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="n">
-        <v>926</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>862</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1676,91 +1676,91 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>720</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>669</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>481</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>419</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>890</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>957</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>963</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>948</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>913</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>863</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>781</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>611</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>901</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="n">
-        <v>943</v>
+        <v>2</v>
       </c>
       <c r="AA14" t="n">
-        <v>947</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="n">
-        <v>940</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="n">
-        <v>921</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>891</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1771,91 +1771,91 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>750</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>618</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>551</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>333</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>951</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>965</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>970</v>
+        <v>2</v>
       </c>
       <c r="Q15" t="n">
-        <v>958</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>938</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>866</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>770</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>866</v>
+        <v>2</v>
       </c>
       <c r="Y15" t="n">
-        <v>934</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>964</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>970</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="n">
-        <v>961</v>
+        <v>2</v>
       </c>
       <c r="AC15" t="n">
-        <v>941</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>886</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1866,91 +1866,91 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>742</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>690</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>289</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>259</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>890</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>965</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>982</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>975</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>965</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>945</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>874</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>805</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>852</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>969</v>
+        <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>979</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>970</v>
+        <v>2</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>2</v>
       </c>
       <c r="AC16" t="n">
-        <v>934</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="n">
-        <v>897</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1961,91 +1961,91 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>752</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>453</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>914</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>975</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>983</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>977</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>971</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>951</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>807</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>582</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>852</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>967</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="n">
-        <v>983</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>990</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="n">
-        <v>976</v>
+        <v>2</v>
       </c>
       <c r="AC17" t="n">
-        <v>976</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
-        <v>914</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2056,91 +2056,91 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>777</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>637</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>591</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>390</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>911</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>980</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>986</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>990</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>980</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>966</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>918</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>818</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>558</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>939</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
-        <v>978</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
-        <v>992</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>992</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="n">
-        <v>987</v>
+        <v>2</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>2</v>
       </c>
       <c r="AD18" t="n">
-        <v>909</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2151,91 +2151,91 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>759</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>667</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>598</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>356</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>913</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>991</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>992</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>986</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>986</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>967</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>925</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>817</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>519</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>949</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="n">
-        <v>985</v>
+        <v>2</v>
       </c>
       <c r="Z19" t="n">
-        <v>992</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="n">
-        <v>996</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>993</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>972</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
-        <v>910</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>530</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2246,91 +2246,91 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>792</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>711</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>417</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>381</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>915</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>994</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>995</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>987</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>990</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>978</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>953</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>814</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>954</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>990</v>
+        <v>2</v>
       </c>
       <c r="Z20" t="n">
-        <v>992</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>997</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="n">
-        <v>987</v>
+        <v>2</v>
       </c>
       <c r="AC20" t="n">
-        <v>978</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
-        <v>932</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2338,94 +2338,94 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>795</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>775</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>677</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>581</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>349</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>294</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>967</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>991</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>994</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>995</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>986</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>971</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>935</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>854</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>862</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>990</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>996</v>
+        <v>2</v>
       </c>
       <c r="Z21" t="n">
-        <v>996</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>998</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="n">
-        <v>997</v>
+        <v>2</v>
       </c>
       <c r="AC21" t="n">
-        <v>985</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
-        <v>929</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>508</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Implementation/Python/experiment3blind.xlsx
+++ b/Implementation/Python/experiment3blind.xlsx
@@ -670,49 +670,49 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -741,76 +741,76 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -830,82 +830,82 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -922,85 +922,85 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>309</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="AC6" t="n">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -1017,85 +1017,85 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>435</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>537</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>537</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>478</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>341</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -1109,88 +1109,88 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>518</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>688</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>689</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>525</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>554</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>584</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
@@ -1204,88 +1204,88 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>552</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>359</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>381</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>707</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>766</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>784</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>342</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>439</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>544</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>642</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>676</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>720</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>598</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10">
@@ -1299,88 +1299,88 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>437</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>783</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>828</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>815</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>811</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>715</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>555</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>453</v>
       </c>
       <c r="Y10" t="n">
-        <v>2</v>
+        <v>578</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>732</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>751</v>
       </c>
       <c r="AB10" t="n">
-        <v>2</v>
+        <v>793</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>752</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>651</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
@@ -1391,91 +1391,91 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>653</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>465</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>384</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>414</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>881</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>876</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>889</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>841</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>598</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>612</v>
       </c>
       <c r="Y11" t="n">
-        <v>2</v>
+        <v>768</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>843</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>847</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>847</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>793</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>677</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12">
@@ -1486,91 +1486,91 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>661</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>619</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>523</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>467</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>826</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>907</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>917</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>900</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>876</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>834</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>760</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>290</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>621</v>
       </c>
       <c r="Y12" t="n">
-        <v>2</v>
+        <v>794</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>874</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>896</v>
       </c>
       <c r="AB12" t="n">
-        <v>2</v>
+        <v>885</v>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>875</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>840</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13">
@@ -1581,91 +1581,91 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>694</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>626</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>565</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>433</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>871</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>930</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>947</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>923</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>892</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>881</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>782</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>612</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>805</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>928</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>936</v>
       </c>
       <c r="AB13" t="n">
-        <v>1</v>
+        <v>929</v>
       </c>
       <c r="AC13" t="n">
-        <v>2</v>
+        <v>914</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>858</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14">
@@ -1676,91 +1676,91 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>718</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>671</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>549</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>387</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>879</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>966</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>944</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>944</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>908</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>870</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>772</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>635</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>917</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>948</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>943</v>
       </c>
       <c r="AB14" t="n">
-        <v>2</v>
+        <v>945</v>
       </c>
       <c r="AC14" t="n">
-        <v>2</v>
+        <v>936</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>886</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15">
@@ -1771,91 +1771,91 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>733</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>647</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>595</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>392</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>960</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>973</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>964</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>948</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>946</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>876</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>809</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>867</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>934</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>971</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>974</v>
       </c>
       <c r="AB15" t="n">
-        <v>2</v>
+        <v>969</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>941</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>886</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16">
@@ -1866,91 +1866,91 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>719</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>642</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>559</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>479</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>908</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>967</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>981</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>982</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>970</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>945</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>890</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>861</v>
       </c>
       <c r="Y16" t="n">
-        <v>2</v>
+        <v>967</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>976</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>974</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>982</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>958</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>903</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17">
@@ -1961,91 +1961,91 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>736</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>462</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>423</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>905</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>958</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>984</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>975</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>968</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>943</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>938</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>816</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>575</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>854</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>971</v>
       </c>
       <c r="Z17" t="n">
-        <v>2</v>
+        <v>992</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>987</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>986</v>
       </c>
       <c r="AC17" t="n">
-        <v>2</v>
+        <v>978</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>909</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18">
@@ -2056,91 +2056,91 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>789</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>668</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>620</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>362</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>894</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>985</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>988</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>987</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>967</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>971</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>919</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>813</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>533</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>964</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>977</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>995</v>
       </c>
       <c r="AA18" t="n">
-        <v>2</v>
+        <v>994</v>
       </c>
       <c r="AB18" t="n">
-        <v>2</v>
+        <v>988</v>
       </c>
       <c r="AC18" t="n">
-        <v>2</v>
+        <v>982</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>930</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19">
@@ -2151,91 +2151,91 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>792</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>678</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>583</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>483</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>908</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>975</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>988</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>987</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>977</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>961</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>941</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>817</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>530</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>958</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
+        <v>989</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>992</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>993</v>
       </c>
       <c r="AB19" t="n">
-        <v>2</v>
+        <v>988</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>974</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>926</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20">
@@ -2246,91 +2246,91 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>795</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>709</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>596</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>534</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>425</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>324</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>910</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>984</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>988</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>989</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>983</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>967</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>945</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>828</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>472</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>957</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>994</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>996</v>
       </c>
       <c r="AB20" t="n">
-        <v>2</v>
+        <v>993</v>
       </c>
       <c r="AC20" t="n">
-        <v>2</v>
+        <v>984</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>922</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21">
@@ -2338,94 +2338,94 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>762</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>691</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>625</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>461</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>347</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>978</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>996</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>994</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>987</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>963</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>931</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>830</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>293</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>988</v>
       </c>
       <c r="Y21" t="n">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="Z21" t="n">
-        <v>2</v>
+        <v>998</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="AB21" t="n">
-        <v>2</v>
+        <v>995</v>
       </c>
       <c r="AC21" t="n">
-        <v>2</v>
+        <v>988</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>924</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
